--- a/Data/ReusableCards.xlsx
+++ b/Data/ReusableCards.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Uipath\Rexza\AmazonGiftCardProcessing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D5D2247-09E7-4831-820B-87D0FE561DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4718FDEC-4C95-4E0B-B0CE-256B81A71F1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6300" yWindow="8220" windowWidth="15060" windowHeight="16635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29895" yWindow="2745" windowWidth="26730" windowHeight="27825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Previous Orders" sheetId="1" r:id="rId1"/>
+    <sheet name="Unclaimed Cards" sheetId="1" r:id="rId1"/>
+    <sheet name="ReUsable Cards" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,1101 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1147" uniqueCount="548">
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Detailslink</t>
+  </si>
+  <si>
+    <t>ResendLink</t>
+  </si>
+  <si>
+    <t>SendToPhone</t>
+  </si>
+  <si>
+    <t>SentTo</t>
+  </si>
+  <si>
+    <t>IdentifiedDate</t>
+  </si>
+  <si>
+    <t>ResendTicker</t>
+  </si>
+  <si>
+    <t>$25.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-0133668-3107437&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04799292IJSSMWA36NBI&amp;orderID=112-0133668-3107437</t>
+  </si>
+  <si>
+    <t>+18136976419</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jazmin Cepeda with Frontier</t>
+  </si>
+  <si>
+    <t>2025-03-07</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-0774468-6043405&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A17T9CIJ9U1L7I&amp;orderID=112-0774468-6043405</t>
+  </si>
+  <si>
+    <t>+18137935543</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-6574644-8067402&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0982490F5EPXJ6FXFEE&amp;orderID=112-6574644-8067402</t>
+  </si>
+  <si>
+    <t>+19452017972</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Haley Chandler with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-4930789-2793052&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1TAZTRNWC1MK1&amp;orderID=112-4930789-2793052</t>
+  </si>
+  <si>
+    <t>+18137834262</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Angela Brewton with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-9957455-6130661&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07587402I3L5H2PPUWNY&amp;orderID=112-9957455-6130661</t>
+  </si>
+  <si>
+    <t>+17276451526</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-7025854-4391408&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0122514PMF2GI6E8BLV&amp;orderID=112-7025854-4391408</t>
+  </si>
+  <si>
+    <t>+18137300346</t>
+  </si>
+  <si>
+    <t>$75.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-2589745-4913850&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A292NRJRY55NOL&amp;orderID=112-2589745-4913850</t>
+  </si>
+  <si>
+    <t>+19418666191</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reggie Quintyne with Frontier</t>
+  </si>
+  <si>
+    <t>$50.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-4731005-0524210&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A062250616R4ZP564PAN6&amp;orderID=112-4731005-0524210</t>
+  </si>
+  <si>
+    <t>+18137635956</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Carol Unger with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-0239437-6261064&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A02600593JQFVEHE1Y3XI&amp;orderID=112-0239437-6261064</t>
+  </si>
+  <si>
+    <t>+14079233408</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-6313207-4699466&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04169893B2M4TN4LHMWZ&amp;orderID=112-6313207-4699466</t>
+  </si>
+  <si>
+    <t>+14698594581</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Edward Shaffer with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-7363147-1899402&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A03319752NBEX5ARZEF9I&amp;orderID=112-7363147-1899402</t>
+  </si>
+  <si>
+    <t>+14194601815</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-4764305-7817012&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2AHKXNQZX2XHT&amp;orderID=112-4764305-7817012</t>
+  </si>
+  <si>
+    <t>+16208902368</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-9359587-0326645&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0734014IEXCNN8UYAYR&amp;orderID=112-9359587-0326645</t>
+  </si>
+  <si>
+    <t>+16204744392</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-4451554-5221033&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00363271W7N9DEXR5EHR&amp;orderID=112-4451554-5221033</t>
+  </si>
+  <si>
+    <t>+17278572297</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sean Dolly with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-8228125-7721056&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0723831YM8CUKOH137G&amp;orderID=112-8228125-7721056</t>
+  </si>
+  <si>
+    <t>+17274010575</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Cristina Vargas with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-0573043-7719406&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A47BI0MC828UV&amp;orderID=112-0573043-7719406</t>
+  </si>
+  <si>
+    <t>+19037440703</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-3185884-8002663&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=APDJPOR4JEA3X&amp;orderID=112-3185884-8002663</t>
+  </si>
+  <si>
+    <t>+14695034178</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Chuck Harthausen with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-0414467-5341022&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06104971YOC6EM8NQM8L&amp;orderID=112-0414467-5341022</t>
+  </si>
+  <si>
+    <t>+17274220240</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Brody Rodriguez with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-3343600-7101019&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1M0YP5ZPFM9QS&amp;orderID=112-3343600-7101019</t>
+  </si>
+  <si>
+    <t>+13107955876</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-6502729-0256269&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2U9GRECB3TCJQ&amp;orderID=112-6502729-0256269</t>
+  </si>
+  <si>
+    <t>+17575092860</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-7541151-9248224&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07934041ZZHD3ZS0EPLK&amp;orderID=112-7541151-9248224</t>
+  </si>
+  <si>
+    <t>+18134610061</t>
+  </si>
+  <si>
+    <t>$125.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-3204903-3013829&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2OKMOFBX9R79M&amp;orderID=112-3204903-3013829</t>
+  </si>
+  <si>
+    <t>+14046109328</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-2350425-1466653&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=AWQNLB7EU64HA&amp;orderID=112-2350425-1466653</t>
+  </si>
+  <si>
+    <t>+15129052494</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-9328916-0717801&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A10207872MH8YYHYDTF8T&amp;orderID=112-9328916-0717801</t>
+  </si>
+  <si>
+    <t>+14077243357</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-0785382-2058637&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1QS0E3YI1KBF6&amp;orderID=112-0785382-2058637</t>
+  </si>
+  <si>
+    <t>+13053367270</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-8504390-4831450&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A001199476E68FXRS68O&amp;orderID=112-8504390-4831450</t>
+  </si>
+  <si>
+    <t>+19417800065</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Vicki Tarro with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-3441875-9633862&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A10310432Z98WZHVYT4WG&amp;orderID=112-3441875-9633862</t>
+  </si>
+  <si>
+    <t>+18177247459</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-9719909-4252219&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A02294711Y25191NFK8F6&amp;orderID=112-9719909-4252219</t>
+  </si>
+  <si>
+    <t>+15802711347</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Jorge Ruiz with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-7619763-8301829&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06010323L9C29RICLON2&amp;orderID=112-7619763-8301829</t>
+  </si>
+  <si>
+    <t>+18137149116</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-0042938-4601002&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A03849951ZPPDC8LULFAF&amp;orderID=112-0042938-4601002</t>
+  </si>
+  <si>
+    <t>+18138081013</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-0345066-7451428&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07669293N4C8OPHJA18H&amp;orderID=112-0345066-7451428</t>
+  </si>
+  <si>
+    <t>+18133122260</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-5453847-5141027&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A05258421AEH36VIIOMV2&amp;orderID=112-5453847-5141027</t>
+  </si>
+  <si>
+    <t>+18139925357</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=112-9121935-4181042&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1D6M7A6NQJTU&amp;orderID=112-9121935-4181042</t>
+  </si>
+  <si>
+    <t>+19418076692</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5819171-3003401&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A075112412G5OKQD5D8LV&amp;orderID=114-5819171-3003401</t>
+  </si>
+  <si>
+    <t>+17792089136</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Silviya Shushulova with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7623514-1893025&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04678801F22H2ZGLCE6Q&amp;orderID=114-7623514-1893025</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8862439-5197819&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1FE98HAX08G2U&amp;orderID=114-8862439-5197819</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6330769-2023454&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A008880275TCGAKOLIPG&amp;orderID=114-6330769-2023454</t>
+  </si>
+  <si>
+    <t>+14694938505</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6243293-5859420&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09135421TNL4W3OHWG1P&amp;orderID=114-6243293-5859420</t>
+  </si>
+  <si>
+    <t>+19452667749</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7068440-5454603&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A02084313SF46ZM7FS0TF&amp;orderID=114-7068440-5454603</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2852097-8799416&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2OG6CZ9JY2J7Y&amp;orderID=114-2852097-8799416</t>
+  </si>
+  <si>
+    <t>+14074434418</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0335667-5707443&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A05936662N1TETFMP7D2K&amp;orderID=114-0335667-5707443</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0504520-3644241&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0049222P2QG3OMOW82U&amp;orderID=114-0504520-3644241</t>
+  </si>
+  <si>
+    <t>+18134697580</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8155076-9132227&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A03980431DDZK5EXVW79V&amp;orderID=114-8155076-9132227</t>
+  </si>
+  <si>
+    <t>+18633702734</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8976030-7630622&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A08965553HKS826TBII9D&amp;orderID=114-8976030-7630622</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6638724-3449038&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0749117K95K37M9E2TZ&amp;orderID=114-6638724-3449038</t>
+  </si>
+  <si>
+    <t>+14692162069</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Elizabeth Jones with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1935588-5390647&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07600291G94K45J9S8BE&amp;orderID=114-1935588-5390647</t>
+  </si>
+  <si>
+    <t>+14324480990</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6028845-3373014&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2DY8A6ZIY1ET3&amp;orderID=114-6028845-3373014</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1027916-7549051&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1034982XEZ50QUNN9K0&amp;orderID=114-1027916-7549051</t>
+  </si>
+  <si>
+    <t>+18138920256</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7113820-8977830&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0351011BAQKI1BW3BYL&amp;orderID=114-7113820-8977830</t>
+  </si>
+  <si>
+    <t>+18134795374</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7266788-5799400&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A045981016MEMT08PFU2S&amp;orderID=114-7266788-5799400</t>
+  </si>
+  <si>
+    <t>+16085164298</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1101603-0215413&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A02813123UH8A344H093E&amp;orderID=114-1101603-0215413</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6871382-9394636&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0045768202N67UPDSDKB&amp;orderID=114-6871382-9394636</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0993359-6217844&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0648854IJDQRJMKKNDU&amp;orderID=114-0993359-6217844</t>
+  </si>
+  <si>
+    <t>+18013102958</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2014220-0209836&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A069977245EVYHGDWM1Q&amp;orderID=114-2014220-0209836</t>
+  </si>
+  <si>
+    <t>+16144201679</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7868699-2404245&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04825083TAD8MKZDQNI4&amp;orderID=114-7868699-2404245</t>
+  </si>
+  <si>
+    <t>+16073770539</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3290509-4153018&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01326033T38CM5WA374B&amp;orderID=114-3290509-4153018</t>
+  </si>
+  <si>
+    <t>+14696844404</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3787930-9047445&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09051492IZMFE6OCIUWN&amp;orderID=114-3787930-9047445</t>
+  </si>
+  <si>
+    <t>+18175832727</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9196216-3641864&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07310801XQNQK8JQW9IC&amp;orderID=114-9196216-3641864</t>
+  </si>
+  <si>
+    <t>+12023554603</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2554908-6397001&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01574832647Q3QR1NV84&amp;orderID=114-2554908-6397001</t>
+  </si>
+  <si>
+    <t>+12036051372</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7534020-6125063&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A08067561MINT10XVIRHR&amp;orderID=114-7534020-6125063</t>
+  </si>
+  <si>
+    <t>+18133289207</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1686602-2151448&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A103195838KX7UZP9U1QR&amp;orderID=114-1686602-2151448</t>
+  </si>
+  <si>
+    <t>+19729897222</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4032999-8545853&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2QC22FKW1NODO&amp;orderID=114-4032999-8545853</t>
+  </si>
+  <si>
+    <t>+18044330161</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1679170-3513065&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3MRCRNLGA0H1T&amp;orderID=114-1679170-3513065</t>
+  </si>
+  <si>
+    <t>+14079075346</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2257940-4158600&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1WE9LMD2CLE59&amp;orderID=114-2257940-4158600</t>
+  </si>
+  <si>
+    <t>+17022741024</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0632670-0101824&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A073706023PR681DB6F3K&amp;orderID=114-0632670-0101824</t>
+  </si>
+  <si>
+    <t>+12486227046</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3431628-7053006&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2MQDURO62RJGK&amp;orderID=114-3431628-7053006</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6498643-3417855&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0580783PANQ170ZF9U6&amp;orderID=114-6498643-3417855</t>
+  </si>
+  <si>
+    <t>+18182749066</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Joel Luciano with Spectrum</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1533439-0690619&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0438527F92S8B925AE2&amp;orderID=114-1533439-0690619</t>
+  </si>
+  <si>
+    <t>+15057169777</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4825369-1481812&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07626563IGQ81LRWDKJH&amp;orderID=114-4825369-1481812</t>
+  </si>
+  <si>
+    <t>+13236968561</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1068247-4248223&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01971472UZ5VHADOQJY9&amp;orderID=114-1068247-4248223</t>
+  </si>
+  <si>
+    <t>+16086289595</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1574373-3499425&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04977213FYJR70P0NCIG&amp;orderID=114-1574373-3499425</t>
+  </si>
+  <si>
+    <t>+18139603334</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0932289-5385026&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A10155503LWOS5AA7AC92&amp;orderID=114-0932289-5385026</t>
+  </si>
+  <si>
+    <t>+18136967756</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4365908-9157067&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09005213IG5O0YY55J7H&amp;orderID=114-4365908-9157067</t>
+  </si>
+  <si>
+    <t>+12147936358</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Twquan Clayton with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0211961-6921819&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07778882IOMYYJNKJEFH&amp;orderID=114-0211961-6921819</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9674174-7413013&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06429023SO3P72R2H8CO&amp;orderID=114-9674174-7413013</t>
+  </si>
+  <si>
+    <t>+19412246697</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vicki Tarro with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2278700-3529018&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00525422IDR9P1ZK6SW5&amp;orderID=114-2278700-3529018</t>
+  </si>
+  <si>
+    <t>+14698105320</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9990808-9620208&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0614432CQB2HMQ5EODZ&amp;orderID=114-9990808-9620208</t>
+  </si>
+  <si>
+    <t>+14709787058</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7960223-6805832&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2821OZMKVQHH1&amp;orderID=114-7960223-6805832</t>
+  </si>
+  <si>
+    <t>+13522222478</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0975245-0561043&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0773217273ZNC5S4X5IA&amp;orderID=114-0975245-0561043</t>
+  </si>
+  <si>
+    <t>+13529780200</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3513055-6944208&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0605126126NREB50MR7Z&amp;orderID=114-3513055-6944208</t>
+  </si>
+  <si>
+    <t>+18133059716</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8504047-3697809&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00460473FEN96R17LB3Q&amp;orderID=114-8504047-3697809</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0372470-5558602&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=ASI76I51HZHKX&amp;orderID=114-0372470-5558602</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0482753-3342660&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04174391UPYN2AP0EAS5&amp;orderID=114-0482753-3342660</t>
+  </si>
+  <si>
+    <t>+19014061107</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0834005-0951468&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A380QV4S8ETULP&amp;orderID=114-0834005-0951468</t>
+  </si>
+  <si>
+    <t>+12149293563</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0184134-2470639&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A05842693PMT1YLQ8BBBD&amp;orderID=114-0184134-2470639</t>
+  </si>
+  <si>
+    <t>+17274803755</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8750779-7629063&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06293473RCJHOERVNFCG&amp;orderID=114-8750779-7629063</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9349333-6517862&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A010201230VGC6AFPZVZ&amp;orderID=114-9349333-6517862</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8018443-2927461&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09505252D7X25XFQLM2L&amp;orderID=114-8018443-2927461</t>
+  </si>
+  <si>
+    <t>+14408973952</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0334657-6984215&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0275228QGSU4J2KC90L&amp;orderID=114-0334657-6984215</t>
+  </si>
+  <si>
+    <t>+18178494804</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0830160-5362663&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2ZGAQBDB1XOI5&amp;orderID=114-0830160-5362663</t>
+  </si>
+  <si>
+    <t>+14693699772</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2790403-2593051&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1INHTLACX96OH&amp;orderID=114-2790403-2593051</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0108138-1736231&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0300185100P9NYDS99Y8&amp;orderID=114-0108138-1736231</t>
+  </si>
+  <si>
+    <t>+17165338115</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3867618-0197021&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0468773UJLB2ZHHUE4W&amp;orderID=114-3867618-0197021</t>
+  </si>
+  <si>
+    <t>+14699203177</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7127454-8058622&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01303174K0S6XLD6G0B&amp;orderID=114-7127454-8058622</t>
+  </si>
+  <si>
+    <t>+17086748866</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1864259-0984267&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A02106661TCCAAKB5TYIC&amp;orderID=114-1864259-0984267</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4010699-9895467&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A02862571G5U5CGWNVALC&amp;orderID=114-4010699-9895467</t>
+  </si>
+  <si>
+    <t>+19414481948</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5621698-8753058&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3FBRGAMG387N6&amp;orderID=114-5621698-8753058</t>
+  </si>
+  <si>
+    <t>+17025231927</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4510308-0729026&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A31M9RSGBD3B79&amp;orderID=114-4510308-0729026</t>
+  </si>
+  <si>
+    <t>+18887204429</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7029191-6469029&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0831821BG8HEOOO08BG&amp;orderID=114-7029191-6469029</t>
+  </si>
+  <si>
+    <t>+19405778608</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7847461-1422631&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0766146PDUSER5R7B98&amp;orderID=114-7847461-1422631</t>
+  </si>
+  <si>
+    <t>+12147935551</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8167151-3297060&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07209801L286CPDEUXQU&amp;orderID=114-8167151-3297060</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4067068-4870600&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A016188423LDWSHORN87T&amp;orderID=114-4067068-4870600</t>
+  </si>
+  <si>
+    <t>+18136298330</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9123796-4573030&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A101764637P61U9NYRCRV&amp;orderID=114-9123796-4573030</t>
+  </si>
+  <si>
+    <t>+14698583553</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6251774-5989825&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A068493514WLBRVEQZ6DC&amp;orderID=114-6251774-5989825</t>
+  </si>
+  <si>
+    <t>+18133404334</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Sean Dolly with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0506309-8790658&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0094725178M7S1BA2BT1&amp;orderID=114-0506309-8790658</t>
+  </si>
+  <si>
+    <t>+18172913658</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1604912-2574636&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A03966432FV9NBO5F5PF9&amp;orderID=114-1604912-2574636</t>
+  </si>
+  <si>
+    <t>+18137633246</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5743219-9332231&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09617153NZLKB4OZV9RD&amp;orderID=114-5743219-9332231</t>
+  </si>
+  <si>
+    <t>+13032299976</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5023562-5057014&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09915693N5J070R0N5C6&amp;orderID=114-5023562-5057014</t>
+  </si>
+  <si>
+    <t>+12149576993</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4363954-4181022&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A05539143AI4Z86LU6N8Y&amp;orderID=114-4363954-4181022</t>
+  </si>
+  <si>
+    <t>$250.00</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0649754-8450605&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A02550303S2X1SWGMKESW&amp;orderID=114-0649754-8450605</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3402036-8474635&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0513620236O16M1JEWDC&amp;orderID=114-3402036-8474635</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5220525-3810622&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3MT8VVP2AHKYL&amp;orderID=114-5220525-3810622</t>
+  </si>
+  <si>
+    <t>+18172981671</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6675511-5249837&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00442061VIZJJTZSJ4JG&amp;orderID=114-6675511-5249837</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6730454-3471464&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1RVOGR3C466AA&amp;orderID=114-6730454-3471464</t>
+  </si>
+  <si>
+    <t>+14696487406</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6242511-8245005&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A009173910JA4GTCE5AN8&amp;orderID=114-6242511-8245005</t>
+  </si>
+  <si>
+    <t>+18133236566</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3243352-1210624&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01860352CBPHYQ59BX51&amp;orderID=114-3243352-1210624</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4929516-1752243&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0817241YJ8GTQ77QBG1&amp;orderID=114-4929516-1752243</t>
+  </si>
+  <si>
+    <t>+12487962746</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0264905-3273867&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01600212ND09E0XIDBRC&amp;orderID=114-0264905-3273867</t>
+  </si>
+  <si>
+    <t>+15624094218</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kim Luciano with AT&amp;T</t>
+  </si>
   <si>
     <t>$5.00</t>
   </si>
@@ -39,306 +1134,138 @@
     <t>+18018244466</t>
   </si>
   <si>
-    <t>2025-01-31</t>
-  </si>
-  <si>
-    <t>$75.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8043543-6256200&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0445275320YFHDOFOX6V&amp;orderID=114-8043543-6256200</t>
+    <t>Hope you enjoy this Amazon Gift Card!</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4533765-5245866&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A8Q8W6C4LDDU2&amp;orderID=114-4533765-5245866</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0017127-9417820&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06390621APVI7GHJ9N88&amp;orderID=114-0017127-9417820</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nicole North with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2572377-3360246&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00139473J6KJA479VPX6&amp;orderID=114-2572377-3360246</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5275411-9150608&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07125212LX7ACENIXEFL&amp;orderID=114-5275411-9150608</t>
+  </si>
+  <si>
+    <t>+15043030472</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7380976-2268239&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00539803TEL7I9F895CJ&amp;orderID=114-7380976-2268239</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4648676-8470628&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06495853AUJ4G7AIR5XN&amp;orderID=114-4648676-8470628</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1757229-3879461&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00950911EB4D6UTP5A6M&amp;orderID=114-1757229-3879461</t>
+  </si>
+  <si>
+    <t>+19726580936</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Steffan Mohammadi with Frontier</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7632239-7550617&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A24QD7D9EGWAU8&amp;orderID=114-7632239-7550617</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1917125-8541831&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A054560339N4AC0P18E2W&amp;orderID=114-1917125-8541831</t>
+  </si>
+  <si>
+    <t>+14082120800</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0036196-7203433&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0288139OS65AHBBL7TJ&amp;orderID=114-0036196-7203433</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1498303-0327436&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=ADRUSPRLG2HSY&amp;orderID=114-1498303-0327436</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0361252-4072254&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07377543RTRZ8NDM5JP1&amp;orderID=114-0361252-4072254</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5662307-6389062&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A031180619IMDSBHW3I2P&amp;orderID=114-5662307-6389062</t>
+  </si>
+  <si>
+    <t>+19047077616</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8248910-0285803&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=AZNH5FSFM08D2&amp;orderID=114-8248910-0285803</t>
+  </si>
+  <si>
+    <t>+17277685076</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8830681-4159409&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01880163LRH0UTSPUQP4&amp;orderID=114-8830681-4159409</t>
+  </si>
+  <si>
+    <t>+19723101612</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1290876-8879441&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3BXU5914C2T62&amp;orderID=114-1290876-8879441</t>
   </si>
   <si>
     <t>+17203530307</t>
   </si>
   <si>
-    <t>$25.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4533765-5245866&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A8Q8W6C4LDDU2&amp;orderID=114-4533765-5245866</t>
-  </si>
-  <si>
-    <t>+18137633246</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0017127-9417820&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06390621APVI7GHJ9N88&amp;orderID=114-0017127-9417820</t>
-  </si>
-  <si>
-    <t>+12149576993</t>
-  </si>
-  <si>
-    <t>$50.00</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2572377-3360246&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00139473J6KJA479VPX6&amp;orderID=114-2572377-3360246</t>
-  </si>
-  <si>
-    <t>+19418666191</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9072716-8376263&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1CMYTAB1Q7536&amp;orderID=114-9072716-8376263</t>
-  </si>
-  <si>
-    <t>+18137635956</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9415764-0778626&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A089894510VIXK7Q8HFMQ&amp;orderID=114-9415764-0778626</t>
-  </si>
-  <si>
-    <t>+16073770539</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2494444-6011444&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04135136IIHH1M9LXWO&amp;orderID=114-2494444-6011444</t>
-  </si>
-  <si>
-    <t>+19543956576</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5275411-9150608&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07125212LX7ACENIXEFL&amp;orderID=114-5275411-9150608</t>
-  </si>
-  <si>
-    <t>+15043030472</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7380976-2268239&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00539803TEL7I9F895CJ&amp;orderID=114-7380976-2268239</t>
-  </si>
-  <si>
-    <t>+12036051372</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4648676-8470628&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06495853AUJ4G7AIR5XN&amp;orderID=114-4648676-8470628</t>
-  </si>
-  <si>
-    <t>+14074434418</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1757229-3879461&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00950911EB4D6UTP5A6M&amp;orderID=114-1757229-3879461</t>
-  </si>
-  <si>
-    <t>+19726580936</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7632239-7550617&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A24QD7D9EGWAU8&amp;orderID=114-7632239-7550617</t>
-  </si>
-  <si>
-    <t>+19037440703</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5390306-6541803&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A010229935Y33CAKJSJVL&amp;orderID=114-5390306-6541803</t>
-  </si>
-  <si>
-    <t>+18632215747</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4412409-8110619&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3QZXBUXQ05AT0&amp;orderID=114-4412409-8110619</t>
-  </si>
-  <si>
-    <t>+19543190787</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6659261-0935404&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01685011EV15P67G2IS8&amp;orderID=114-6659261-0935404</t>
-  </si>
-  <si>
-    <t>+18138431922</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1917125-8541831&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A054560339N4AC0P18E2W&amp;orderID=114-1917125-8541831</t>
-  </si>
-  <si>
-    <t>+14082120800</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0317545-9137018&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3EZMKJEB2QO4Q&amp;orderID=114-0317545-9137018</t>
-  </si>
-  <si>
-    <t>+18134610061</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0036196-7203433&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0288139OS65AHBBL7TJ&amp;orderID=114-0036196-7203433</t>
-  </si>
-  <si>
-    <t>+17086748866</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1498303-0327436&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=ADRUSPRLG2HSY&amp;orderID=114-1498303-0327436</t>
-  </si>
-  <si>
-    <t>+13053367270</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0361252-4072254&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07377543RTRZ8NDM5JP1&amp;orderID=114-0361252-4072254</t>
-  </si>
-  <si>
-    <t>+18182749066</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3868964-1472225&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00889202V7HARYRVSYZN&amp;orderID=114-3868964-1472225</t>
-  </si>
-  <si>
-    <t>+18133776220</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3723519-3609864&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01987152X4J2X18M29O6&amp;orderID=114-3723519-3609864</t>
-  </si>
-  <si>
-    <t>+13025983476</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5662307-6389062&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A031180619IMDSBHW3I2P&amp;orderID=114-5662307-6389062</t>
-  </si>
-  <si>
-    <t>+19047077616</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8248910-0285803&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=AZNH5FSFM08D2&amp;orderID=114-8248910-0285803</t>
-  </si>
-  <si>
-    <t>+17277685076</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5639910-1009012&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1M39RPLT8JPLK&amp;orderID=114-5639910-1009012</t>
-  </si>
-  <si>
-    <t>+19723022335</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-5095782-4250652&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09217713SBF0HUA4S8N9&amp;orderID=114-5095782-4250652</t>
-  </si>
-  <si>
-    <t>+19034057724</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8830681-4159409&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01880163LRH0UTSPUQP4&amp;orderID=114-8830681-4159409</t>
-  </si>
-  <si>
-    <t>+19723101612</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-1290876-8879441&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3BXU5914C2T62&amp;orderID=114-1290876-8879441</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6833349-4800201&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07553291PWQVYR9MSPEB&amp;orderID=114-6833349-4800201</t>
-  </si>
-  <si>
-    <t>+19415677304</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0296785-2857852&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A032241634YJQY57AGZWU&amp;orderID=114-0296785-2857852</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3433066-5513832&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1NFXGPMXPZU7U&amp;orderID=114-3433066-5513832</t>
-  </si>
-  <si>
-    <t>+19785307170</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6297053-5912232&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A05628522F116FRGPCIIO&amp;orderID=114-6297053-5912232</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-6008618-6260226&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06359791BFHSIHVA9C5L&amp;orderID=114-6008618-6260226</t>
   </si>
   <si>
-    <t>+18013102958</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-5651025-7609850&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -354,72 +1281,24 @@
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A02842121VBWS1AOOJXFZ&amp;orderID=114-7489325-0795422</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-3297772-7957066&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A08410312T4IH3DENC441&amp;orderID=114-3297772-7957066</t>
-  </si>
-  <si>
-    <t>+19415042275</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-6390939-1700243&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06573791XJI7HCQ5B9LB&amp;orderID=114-6390939-1700243</t>
   </si>
   <si>
-    <t>+14693699772</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-3188231-2567404&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0085669M70P59TI3V2C&amp;orderID=114-3188231-2567404</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-6535987-5809847&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0946295EZEUB72LJDMM&amp;orderID=114-6535987-5809847</t>
-  </si>
-  <si>
-    <t>+14139770182</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9094751-1193006&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0165216BFSXM7Y3IFRB&amp;orderID=114-9094751-1193006</t>
-  </si>
-  <si>
-    <t>+12142269109</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-7271980-0573864&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2NFH3UW1BIIOG&amp;orderID=114-7271980-0573864</t>
-  </si>
-  <si>
-    <t>+12817067755</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9218968-4045869&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0467631AYU9M3A04SSS&amp;orderID=114-9218968-4045869</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-4476890-8529023&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=ACMM0685LQ599&amp;orderID=114-4476890-8529023</t>
   </si>
   <si>
-    <t>+13107955876</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-9660023-7077052&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -435,24 +1314,6 @@
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00761073QBBWYTMUN1S5&amp;orderID=114-2447469-6182602</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0051477-3333025&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00904441KBW1R6H3MKKX&amp;orderID=114-0051477-3333025</t>
-  </si>
-  <si>
-    <t>+12147137211</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2901503-0126658&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A323RYHNE8QVVC&amp;orderID=114-2901503-0126658</t>
-  </si>
-  <si>
-    <t>+16823952087</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-4833794-2837838&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -471,30 +1332,6 @@
     <t>+16824290380</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2966772-5882603&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09115331B8NQY7F08PP2&amp;orderID=114-2966772-5882603</t>
-  </si>
-  <si>
-    <t>+16086289595</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9323706-0273034&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1KBBU4ZH9THBG&amp;orderID=114-9323706-0273034</t>
-  </si>
-  <si>
-    <t>+18177247459</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-0434641-3987434&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A011031410S5NKPMYU1FQ&amp;orderID=114-0434641-3987434</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-7031906-8933065&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -504,36 +1341,6 @@
     <t>+18134163488</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2448570-2610639&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01286881JGW6VEFNCM5P&amp;orderID=114-2448570-2610639</t>
-  </si>
-  <si>
-    <t>+16085164298</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-9441736-1087419&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0717860211JTW564LPNP&amp;orderID=114-9441736-1087419</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2014372-6326614&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1XSDO1S4ETVA9&amp;orderID=114-2014372-6326614</t>
-  </si>
-  <si>
-    <t>+19418076692</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8453136-0901817&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0211541OZSM34VBFV9O&amp;orderID=114-8453136-0901817</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-9320592-3915420&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -549,9 +1356,6 @@
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3DLY6JW8BPGDN&amp;orderID=114-8920939-7759441</t>
   </si>
   <si>
-    <t>+18172913658</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-6328598-9147411&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -567,24 +1371,12 @@
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01213191DSJ0EOTFOMWA&amp;orderID=114-8003010-6914609</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-4853233-4333060&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A08439672MFSOBN4U5IDK&amp;orderID=114-4853233-4333060</t>
-  </si>
-  <si>
-    <t>+16615736226</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-8604221-3335436&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0695293DD8JLBAPKEG&amp;orderID=114-8604221-3335436</t>
   </si>
   <si>
-    <t>+18175832727</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-4425787-4052213&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -606,24 +1398,6 @@
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A05069411RAMGRJMDBCFA&amp;orderID=114-8455094-3589832</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8290776-6147416&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A03466171518T6PDMFNZG&amp;orderID=114-8290776-6147416</t>
-  </si>
-  <si>
-    <t>+19495588420</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8956293-1168255&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A03918652SHC8TBNYF3T2&amp;orderID=114-8956293-1168255</t>
-  </si>
-  <si>
-    <t>+14693797085</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-9645748-9796241&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -651,15 +1425,6 @@
     <t>+19363557667</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-2489868-0636249&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01693436UHIET7QCPGE&amp;orderID=114-2489868-0636249</t>
-  </si>
-  <si>
-    <t>+18134056953</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-3564758-8498610&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -711,15 +1476,6 @@
     <t>+14696559222</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=114-8433875-5177002&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A06447041RO9JDAS8S4PM&amp;orderID=114-8433875-5177002</t>
-  </si>
-  <si>
-    <t>+19404428377</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=114-3330426-8527449&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -729,30 +1485,12 @@
     <t>+14694689138</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-9430273-8962612&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00553343GCCMA28KG9CU&amp;orderID=111-9430273-8962612</t>
-  </si>
-  <si>
-    <t>+19419147237</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-5043498-0819432&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0793406B4VEXRKW8X14&amp;orderID=111-5043498-0819432</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-9995913-7301853&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A10259173KYPMTW430J8C&amp;orderID=111-9995913-7301853</t>
   </si>
   <si>
-    <t>+18137834262</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-9479889-3105861&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -771,6 +1509,12 @@
     <t>+19726580538</t>
   </si>
   <si>
+    <t>https://www.amazon.com/gp/css/order-details?orderID=111-4868619-2212219&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0633919367QEYVDUR7AK&amp;orderID=111-4868619-2212219</t>
+  </si>
+  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-6616568-1664222&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -786,15 +1530,6 @@
     <t>+18138040997</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-3485782-4061861&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2QXARQ1GO1H0E&amp;orderID=111-3485782-4061861</t>
-  </si>
-  <si>
-    <t>+18134094997</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-3124887-3385840&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -804,66 +1539,18 @@
     <t>+18139449184</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-9971623-5183412&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2LPCK1ZV20E1H&amp;orderID=111-9971623-5183412</t>
-  </si>
-  <si>
-    <t>+18174034175</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-0372083-3915417&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A102197322JATQLC6PLY2&amp;orderID=111-0372083-3915417</t>
-  </si>
-  <si>
-    <t>+14699125844</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-9982731-1116245&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0474502V0CWI6K34W&amp;orderID=111-9982731-1116245</t>
   </si>
   <si>
-    <t>+17165338115</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-1255612-0284220&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A10028043PFTZLNU8BGWV&amp;orderID=111-1255612-0284220</t>
-  </si>
-  <si>
-    <t>+14695034178</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-5518166-3626627&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A026576115RNDHIJRY27V&amp;orderID=111-5518166-3626627</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-5788682-7848200&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2XY8M76X1OHWM&amp;orderID=111-5788682-7848200</t>
-  </si>
-  <si>
-    <t>+19419578341</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-9663438-1730664&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09055512IUNGA4X8HC3L&amp;orderID=111-9663438-1730664</t>
-  </si>
-  <si>
-    <t>+14692162069</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-1448603-4569045&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -873,78 +1560,18 @@
     <t>+19403950504</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-4357259-2237825&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0667502YURWTRJGH6BP&amp;orderID=111-4357259-2237825</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-1118040-4155403&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0287273J3VLMISVSLL5&amp;orderID=111-1118040-4155403</t>
-  </si>
-  <si>
-    <t>+12149949071</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-7541828-6281058&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00069843302VZ4RG7E8Y&amp;orderID=111-7541828-6281058</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-4654223-8344247&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09074823S2MGXGWYOQY1&amp;orderID=111-4654223-8344247</t>
-  </si>
-  <si>
-    <t>+14236823287</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-6910622-6725833&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00302551Q64X1PNZ52C5&amp;orderID=111-6910622-6725833</t>
-  </si>
-  <si>
-    <t>+19419939458</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-9774746-4273848&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A00091243GDT2DHVSA1N6&amp;orderID=111-9774746-4273848</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-8239977-7125001&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1CK62609CKL30&amp;orderID=111-8239977-7125001</t>
-  </si>
-  <si>
-    <t>+16159738556</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-4049303-1736236&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A08874821PF7U6S2I1OU7&amp;orderID=111-4049303-1736236</t>
   </si>
   <si>
-    <t>+18136967756</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-7589450-4130626&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A064828820RIZG0RPU3PZ&amp;orderID=111-7589450-4130626</t>
-  </si>
-  <si>
-    <t>+12144697455</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-3897064-7231412&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -954,63 +1581,12 @@
     <t>+14695002241</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-4634372-9973012&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1KLAWPBEV4BWS&amp;orderID=111-4634372-9973012</t>
-  </si>
-  <si>
-    <t>+18133625361</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-9951066-0025865&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04545631T0OXOHFC7RO0&amp;orderID=111-9951066-0025865</t>
-  </si>
-  <si>
-    <t>+17279026222</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-9568365-1309864&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A09163991W9M2UNLFQ0YD&amp;orderID=111-9568365-1309864</t>
   </si>
   <si>
-    <t>+18137300346</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-7550790-3867409&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A05987602I9VVX4LDM942&amp;orderID=111-7550790-3867409</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-3935673-1626638&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01806373U148WQNH1RNJ&amp;orderID=111-3935673-1626638</t>
-  </si>
-  <si>
-    <t>+15129052494</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-7869280-7349063&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A3M7VTED6WL60K&amp;orderID=111-7869280-7349063</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-8286410-7443451&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A047496921ET37WPCLV46&amp;orderID=111-8286410-7443451</t>
-  </si>
-  <si>
-    <t>+19562431671</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-0633062-3823409&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -1026,33 +1602,12 @@
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A07068411TLTMVYB1PMYI&amp;orderID=111-3540411-8193026</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-5555375-1708231&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01966222WXY73UXU4OG8&amp;orderID=111-5555375-1708231</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-0519172-2031401&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1QSJ897GILIBR&amp;orderID=111-0519172-2031401</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-6103711-6660244&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0821017W0VYV6GHCB3Q&amp;orderID=111-6103711-6660244</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-7993680-4857069&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A0389329SOHBYPFVL0B6&amp;orderID=111-7993680-4857069</t>
-  </si>
-  <si>
-    <t>+16673453272</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-9897035-5037032&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -1083,9 +1638,6 @@
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A04682572ZCXPWKAGP5JP&amp;orderID=111-2166430-7900225</t>
   </si>
   <si>
-    <t>+12487962746</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-2698317-1220208&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -1101,39 +1653,6 @@
     <t>+18137530668</t>
   </si>
   <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-4892012-5673028&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A100635216I2UU5HKLZ5E&amp;orderID=111-4892012-5673028</t>
-  </si>
-  <si>
-    <t>+14076900561</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-9824178-0204229&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A2B1LXU84ABZ4V&amp;orderID=111-9824178-0204229</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-1242069-0579409&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A1031763448LEL146009&amp;orderID=111-1242069-0579409</t>
-  </si>
-  <si>
-    <t>+18136140840</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/order-details?orderID=111-1236777-7161028&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
-  </si>
-  <si>
-    <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A08487023CWLYZURXYBQX&amp;orderID=111-1236777-7161028</t>
-  </si>
-  <si>
-    <t>+14694569223</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-7259737-8489829&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -1146,9 +1665,6 @@
     <t>https://www.amazon.com/gp/css/gc-reissue/email-selection.html?ie=UTF8&amp;gcID=A01357351DSFPNNFWB22N&amp;orderID=111-2112045-6988254</t>
   </si>
   <si>
-    <t>+12147936358</t>
-  </si>
-  <si>
     <t>https://www.amazon.com/gp/css/order-details?orderID=111-4515458-2434658&amp;ref=ppx_yo2ov_dt_b_fed_order_details</t>
   </si>
   <si>
@@ -1156,24 +1672,6 @@
   </si>
   <si>
     <t>+13057980445</t>
-  </si>
-  <si>
-    <t>CardAmount</t>
-  </si>
-  <si>
-    <t>OrderLink</t>
-  </si>
-  <si>
-    <t>resendLink</t>
-  </si>
-  <si>
-    <t>OriginalPhone</t>
-  </si>
-  <si>
-    <t>OriginalSender</t>
-  </si>
-  <si>
-    <t>LastResentDate</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1989,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F135"/>
+  <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -1499,2311 +1997,3847 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>378</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>379</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>380</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>381</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="F7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E13" t="s">
         <v>34</v>
       </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>35</v>
       </c>
-      <c r="C12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>9</v>
-      </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D16" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>66</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>69</v>
+      </c>
+      <c r="E18" t="s">
+        <v>70</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>73</v>
+      </c>
+      <c r="E19" t="s">
+        <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="E20" t="s">
+        <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="D22" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="E22" t="s">
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>87</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>90</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
       </c>
       <c r="F24" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>93</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>79</v>
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
       </c>
       <c r="F26" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>82</v>
+        <v>99</v>
+      </c>
+      <c r="E27" t="s">
+        <v>100</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="D28" t="s">
-        <v>85</v>
+        <v>103</v>
+      </c>
+      <c r="E28" t="s">
+        <v>70</v>
       </c>
       <c r="F28" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="C29" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>106</v>
+      </c>
+      <c r="E29" t="s">
+        <v>107</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C30" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="D30" t="s">
-        <v>8</v>
+        <v>110</v>
+      </c>
+      <c r="E30" t="s">
+        <v>100</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="E31" t="s">
+        <v>59</v>
       </c>
       <c r="F31" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="C32" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="D32" t="s">
-        <v>93</v>
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
+        <v>63</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="C33" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>119</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
       </c>
       <c r="F33" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>15</v>
+        <v>122</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="D35" t="s">
-        <v>103</v>
+        <v>125</v>
+      </c>
+      <c r="E35" t="s">
+        <v>126</v>
       </c>
       <c r="F35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C36" t="s">
-        <v>105</v>
+        <v>128</v>
       </c>
       <c r="D36" t="s">
-        <v>106</v>
+        <v>33</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B37" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="C37" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="D37" t="s">
-        <v>34</v>
+        <v>42</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="C38" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="D38" t="s">
-        <v>111</v>
+        <v>133</v>
+      </c>
+      <c r="E38" t="s">
+        <v>107</v>
       </c>
       <c r="F38" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>136</v>
+      </c>
+      <c r="E39" t="s">
+        <v>46</v>
       </c>
       <c r="F39" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>115</v>
+        <v>137</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>52</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="C41" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>141</v>
+      </c>
+      <c r="E41" t="s">
+        <v>74</v>
       </c>
       <c r="F41" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B42" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="C42" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>55</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B43" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C43" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>146</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
       </c>
       <c r="F43" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>147</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>148</v>
       </c>
       <c r="D44" t="s">
-        <v>52</v>
+        <v>149</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
       </c>
       <c r="F44" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B45" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>96</v>
+      </c>
+      <c r="E45" t="s">
+        <v>59</v>
       </c>
       <c r="F45" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B46" t="s">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C46" t="s">
-        <v>132</v>
+        <v>153</v>
       </c>
       <c r="D46" t="s">
-        <v>133</v>
+        <v>154</v>
+      </c>
+      <c r="E46" t="s">
+        <v>155</v>
       </c>
       <c r="F46" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>156</v>
       </c>
       <c r="C47" t="s">
-        <v>135</v>
+        <v>157</v>
       </c>
       <c r="D47" t="s">
-        <v>61</v>
+        <v>158</v>
+      </c>
+      <c r="E47" t="s">
+        <v>107</v>
       </c>
       <c r="F47" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>159</v>
       </c>
       <c r="C48" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="D48" t="s">
-        <v>138</v>
+        <v>103</v>
+      </c>
+      <c r="E48" t="s">
+        <v>70</v>
       </c>
       <c r="F48" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>161</v>
       </c>
       <c r="C49" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="D49" t="s">
-        <v>141</v>
+        <v>163</v>
+      </c>
+      <c r="E49" t="s">
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>164</v>
       </c>
       <c r="C50" t="s">
-        <v>143</v>
+        <v>165</v>
       </c>
       <c r="D50" t="s">
-        <v>144</v>
+        <v>166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>59</v>
       </c>
       <c r="F50" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s">
-        <v>146</v>
+        <v>168</v>
       </c>
       <c r="D51" t="s">
-        <v>147</v>
+        <v>169</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="D52" t="s">
-        <v>150</v>
+        <v>15</v>
+      </c>
+      <c r="E52" t="s">
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="C53" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>153</v>
+        <v>33</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="B54" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C54" t="s">
-        <v>155</v>
+        <v>175</v>
       </c>
       <c r="D54" t="s">
-        <v>76</v>
+        <v>176</v>
+      </c>
+      <c r="E54" t="s">
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="C55" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D55" t="s">
-        <v>158</v>
+        <v>179</v>
+      </c>
+      <c r="E55" t="s">
+        <v>46</v>
       </c>
       <c r="F55" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C56" t="s">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="D56" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="E56" t="s">
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B57" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="C57" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>185</v>
+      </c>
+      <c r="E57" t="s">
+        <v>155</v>
       </c>
       <c r="F57" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B58" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
       <c r="C58" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="D58" t="s">
-        <v>166</v>
+        <v>188</v>
+      </c>
+      <c r="E58" t="s">
+        <v>46</v>
       </c>
       <c r="F58" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="C59" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="D59" t="s">
-        <v>166</v>
+        <v>191</v>
+      </c>
+      <c r="E59" t="s">
+        <v>74</v>
       </c>
       <c r="F59" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="C60" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="D60" t="s">
-        <v>171</v>
+        <v>194</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C61" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="D61" t="s">
-        <v>174</v>
+        <v>197</v>
+      </c>
+      <c r="E61" t="s">
+        <v>59</v>
       </c>
       <c r="F61" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="C62" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="D62" t="s">
-        <v>177</v>
+        <v>200</v>
+      </c>
+      <c r="E62" t="s">
+        <v>19</v>
       </c>
       <c r="F62" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s">
-        <v>19</v>
+        <v>203</v>
+      </c>
+      <c r="E63" t="s">
+        <v>126</v>
       </c>
       <c r="F63" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B64" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="D64" t="s">
-        <v>182</v>
+        <v>206</v>
+      </c>
+      <c r="E64" t="s">
+        <v>74</v>
       </c>
       <c r="F64" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B65" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="C65" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="D65" t="s">
-        <v>185</v>
+        <v>209</v>
+      </c>
+      <c r="E65" t="s">
+        <v>100</v>
       </c>
       <c r="F65" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B66" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="C66" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D66" t="s">
-        <v>130</v>
+        <v>212</v>
+      </c>
+      <c r="E66" t="s">
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="C67" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D67" t="s">
-        <v>190</v>
+        <v>154</v>
+      </c>
+      <c r="E67" t="s">
+        <v>155</v>
       </c>
       <c r="F67" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>215</v>
       </c>
       <c r="C68" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="D68" t="s">
-        <v>64</v>
+        <v>217</v>
+      </c>
+      <c r="E68" t="s">
+        <v>218</v>
       </c>
       <c r="F68" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>219</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>220</v>
       </c>
       <c r="D69" t="s">
-        <v>195</v>
+        <v>221</v>
+      </c>
+      <c r="E69" t="s">
+        <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>222</v>
       </c>
       <c r="C70" t="s">
-        <v>197</v>
+        <v>223</v>
       </c>
       <c r="D70" t="s">
-        <v>198</v>
+        <v>224</v>
+      </c>
+      <c r="E70" t="s">
+        <v>155</v>
       </c>
       <c r="F70" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>225</v>
       </c>
       <c r="C71" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="D71" t="s">
-        <v>201</v>
+        <v>227</v>
+      </c>
+      <c r="E71" t="s">
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B72" t="s">
-        <v>202</v>
+        <v>228</v>
       </c>
       <c r="C72" t="s">
-        <v>203</v>
+        <v>229</v>
       </c>
       <c r="D72" t="s">
-        <v>204</v>
+        <v>230</v>
+      </c>
+      <c r="E72" t="s">
+        <v>63</v>
       </c>
       <c r="F72" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="C73" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="D73" t="s">
-        <v>207</v>
+        <v>233</v>
+      </c>
+      <c r="E73" t="s">
+        <v>63</v>
       </c>
       <c r="F73" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B74" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="C74" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="D74" t="s">
-        <v>210</v>
+        <v>236</v>
+      </c>
+      <c r="E74" t="s">
+        <v>237</v>
       </c>
       <c r="F74" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B75" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C75" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="D75" t="s">
-        <v>213</v>
+        <v>119</v>
+      </c>
+      <c r="E75" t="s">
+        <v>74</v>
       </c>
       <c r="F75" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>240</v>
       </c>
       <c r="C76" t="s">
-        <v>215</v>
+        <v>241</v>
       </c>
       <c r="D76" t="s">
-        <v>216</v>
+        <v>242</v>
+      </c>
+      <c r="E76" t="s">
+        <v>243</v>
       </c>
       <c r="F76" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B77" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C77" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="D77" t="s">
-        <v>185</v>
+        <v>246</v>
+      </c>
+      <c r="E77" t="s">
+        <v>70</v>
       </c>
       <c r="F77" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B78" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="C78" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="D78" t="s">
-        <v>221</v>
+        <v>249</v>
+      </c>
+      <c r="E78" t="s">
+        <v>107</v>
       </c>
       <c r="F78" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="C79" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="D79" t="s">
-        <v>224</v>
+        <v>252</v>
+      </c>
+      <c r="E79" t="s">
+        <v>74</v>
       </c>
       <c r="F79" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B80" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="C80" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="D80" t="s">
-        <v>227</v>
+        <v>255</v>
+      </c>
+      <c r="E80" t="s">
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B81" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="C81" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="D81" t="s">
-        <v>230</v>
+        <v>258</v>
+      </c>
+      <c r="E81" t="s">
+        <v>23</v>
       </c>
       <c r="F81" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B82" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="C82" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="D82" t="s">
-        <v>233</v>
+        <v>33</v>
+      </c>
+      <c r="E82" t="s">
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B83" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="C83" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>176</v>
+      </c>
+      <c r="E83" t="s">
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B84" t="s">
-        <v>237</v>
+        <v>263</v>
       </c>
       <c r="C84" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>265</v>
+      </c>
+      <c r="E84" t="s">
+        <v>63</v>
       </c>
       <c r="F84" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B85" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C85" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="D85" t="s">
-        <v>241</v>
+        <v>268</v>
+      </c>
+      <c r="E85" t="s">
+        <v>237</v>
       </c>
       <c r="F85" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B86" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="C86" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="D86" t="s">
-        <v>244</v>
+        <v>271</v>
+      </c>
+      <c r="E86" t="s">
+        <v>74</v>
       </c>
       <c r="F86" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B87" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C87" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="D87" t="s">
-        <v>247</v>
+        <v>191</v>
+      </c>
+      <c r="E87" t="s">
+        <v>74</v>
       </c>
       <c r="F87" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B88" t="s">
-        <v>248</v>
+        <v>274</v>
       </c>
       <c r="C88" t="s">
-        <v>249</v>
+        <v>275</v>
       </c>
       <c r="D88" t="s">
-        <v>31</v>
+        <v>52</v>
+      </c>
+      <c r="E88" t="s">
+        <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B89" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="C89" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="D89" t="s">
-        <v>252</v>
+        <v>278</v>
+      </c>
+      <c r="E89" t="s">
+        <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="C90" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="D90" t="s">
-        <v>255</v>
+        <v>281</v>
+      </c>
+      <c r="E90" t="s">
+        <v>107</v>
       </c>
       <c r="F90" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B91" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="C91" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="D91" t="s">
-        <v>258</v>
+        <v>284</v>
+      </c>
+      <c r="E91" t="s">
+        <v>107</v>
       </c>
       <c r="F91" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="C92" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="D92" t="s">
-        <v>261</v>
+        <v>206</v>
+      </c>
+      <c r="E92" t="s">
+        <v>74</v>
       </c>
       <c r="F92" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C93" t="s">
-        <v>263</v>
+        <v>288</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>289</v>
+      </c>
+      <c r="E93" t="s">
+        <v>59</v>
       </c>
       <c r="F93" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>290</v>
       </c>
       <c r="C94" t="s">
-        <v>266</v>
+        <v>291</v>
       </c>
       <c r="D94" t="s">
-        <v>267</v>
+        <v>292</v>
+      </c>
+      <c r="E94" t="s">
+        <v>107</v>
       </c>
       <c r="F94" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>293</v>
       </c>
       <c r="C95" t="s">
-        <v>269</v>
+        <v>294</v>
       </c>
       <c r="D95" t="s">
-        <v>270</v>
+        <v>295</v>
+      </c>
+      <c r="E95" t="s">
+        <v>74</v>
       </c>
       <c r="F95" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B96" t="s">
-        <v>271</v>
+        <v>296</v>
       </c>
       <c r="C96" t="s">
-        <v>272</v>
+        <v>297</v>
       </c>
       <c r="D96" t="s">
-        <v>130</v>
+        <v>217</v>
+      </c>
+      <c r="E96" t="s">
+        <v>218</v>
       </c>
       <c r="F96" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B97" t="s">
-        <v>273</v>
+        <v>298</v>
       </c>
       <c r="C97" t="s">
-        <v>274</v>
+        <v>299</v>
       </c>
       <c r="D97" t="s">
-        <v>275</v>
+        <v>300</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>301</v>
       </c>
       <c r="C98" t="s">
-        <v>277</v>
+        <v>302</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>303</v>
+      </c>
+      <c r="E98" t="s">
+        <v>100</v>
       </c>
       <c r="F98" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>304</v>
       </c>
       <c r="C99" t="s">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="D99" t="s">
-        <v>281</v>
+        <v>306</v>
+      </c>
+      <c r="E99" t="s">
+        <v>100</v>
       </c>
       <c r="F99" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B100" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="D100" t="s">
-        <v>141</v>
+        <v>309</v>
+      </c>
+      <c r="E100" t="s">
+        <v>19</v>
       </c>
       <c r="F100" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>284</v>
+        <v>310</v>
       </c>
       <c r="C101" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="D101" t="s">
-        <v>286</v>
+        <v>312</v>
+      </c>
+      <c r="E101" t="s">
+        <v>107</v>
       </c>
       <c r="F101" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>313</v>
       </c>
       <c r="C102" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="D102" t="s">
-        <v>147</v>
+        <v>119</v>
+      </c>
+      <c r="E102" t="s">
+        <v>74</v>
       </c>
       <c r="F102" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B103" t="s">
-        <v>289</v>
+        <v>315</v>
       </c>
       <c r="C103" t="s">
-        <v>290</v>
+        <v>316</v>
       </c>
       <c r="D103" t="s">
-        <v>291</v>
+        <v>317</v>
+      </c>
+      <c r="E103" t="s">
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B104" t="s">
-        <v>292</v>
+        <v>318</v>
       </c>
       <c r="C104" t="s">
-        <v>293</v>
+        <v>319</v>
       </c>
       <c r="D104" t="s">
-        <v>294</v>
+        <v>320</v>
+      </c>
+      <c r="E104" t="s">
+        <v>107</v>
       </c>
       <c r="F104" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B105" t="s">
-        <v>295</v>
+        <v>321</v>
       </c>
       <c r="C105" t="s">
-        <v>296</v>
+        <v>322</v>
       </c>
       <c r="D105" t="s">
-        <v>153</v>
+        <v>323</v>
+      </c>
+      <c r="E105" t="s">
+        <v>324</v>
       </c>
       <c r="F105" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B106" t="s">
-        <v>297</v>
+        <v>325</v>
       </c>
       <c r="C106" t="s">
-        <v>298</v>
+        <v>326</v>
       </c>
       <c r="D106" t="s">
-        <v>299</v>
+        <v>327</v>
+      </c>
+      <c r="E106" t="s">
+        <v>107</v>
       </c>
       <c r="F106" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B107" t="s">
-        <v>300</v>
+        <v>328</v>
       </c>
       <c r="C107" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="D107" t="s">
-        <v>302</v>
+        <v>330</v>
+      </c>
+      <c r="E107" t="s">
+        <v>74</v>
       </c>
       <c r="F107" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="C108" t="s">
-        <v>304</v>
+        <v>332</v>
       </c>
       <c r="D108" t="s">
-        <v>305</v>
+        <v>333</v>
+      </c>
+      <c r="E108" t="s">
+        <v>59</v>
       </c>
       <c r="F108" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B109" t="s">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="C109" t="s">
-        <v>307</v>
+        <v>335</v>
       </c>
       <c r="D109" t="s">
-        <v>308</v>
+        <v>336</v>
+      </c>
+      <c r="E109" t="s">
+        <v>155</v>
       </c>
       <c r="F109" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B110" t="s">
-        <v>309</v>
+        <v>337</v>
       </c>
       <c r="C110" t="s">
-        <v>310</v>
+        <v>338</v>
       </c>
       <c r="D110" t="s">
-        <v>311</v>
+        <v>33</v>
+      </c>
+      <c r="E110" t="s">
+        <v>34</v>
       </c>
       <c r="F110" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>9</v>
+        <v>339</v>
       </c>
       <c r="B111" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="C111" t="s">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="D111" t="s">
-        <v>314</v>
+        <v>176</v>
+      </c>
+      <c r="E111" t="s">
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="B112" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="C112" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="D112" t="s">
-        <v>317</v>
+        <v>188</v>
+      </c>
+      <c r="E112" t="s">
+        <v>46</v>
       </c>
       <c r="F112" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B113" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="C113" t="s">
-        <v>319</v>
+        <v>345</v>
       </c>
       <c r="D113" t="s">
-        <v>185</v>
+        <v>346</v>
+      </c>
+      <c r="E113" t="s">
+        <v>19</v>
       </c>
       <c r="F113" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B114" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C114" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="D114" t="s">
-        <v>322</v>
+        <v>52</v>
+      </c>
+      <c r="E114" t="s">
+        <v>34</v>
       </c>
       <c r="F114" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B115" t="s">
-        <v>323</v>
+        <v>349</v>
       </c>
       <c r="C115" t="s">
-        <v>324</v>
+        <v>350</v>
       </c>
       <c r="D115" t="s">
-        <v>291</v>
+        <v>351</v>
+      </c>
+      <c r="E115" t="s">
+        <v>107</v>
       </c>
       <c r="F115" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B116" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C116" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="D116" t="s">
-        <v>327</v>
+        <v>354</v>
+      </c>
+      <c r="E116" t="s">
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B117" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="C117" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="D117" t="s">
-        <v>330</v>
+        <v>284</v>
+      </c>
+      <c r="E117" t="s">
+        <v>107</v>
       </c>
       <c r="F117" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B118" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C118" t="s">
-        <v>332</v>
+        <v>358</v>
       </c>
       <c r="D118" t="s">
-        <v>233</v>
+        <v>359</v>
+      </c>
+      <c r="E118" t="s">
+        <v>155</v>
       </c>
       <c r="F118" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B119" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="C119" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="D119" t="s">
-        <v>210</v>
+        <v>362</v>
+      </c>
+      <c r="E119" t="s">
+        <v>363</v>
       </c>
       <c r="F119" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>5</v>
+        <v>364</v>
       </c>
       <c r="B120" t="s">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C120" t="s">
-        <v>336</v>
+        <v>366</v>
       </c>
       <c r="D120" t="s">
-        <v>98</v>
+        <v>367</v>
+      </c>
+      <c r="E120" t="s">
+        <v>368</v>
       </c>
       <c r="F120" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="C121" t="s">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="D121" t="s">
-        <v>177</v>
+        <v>330</v>
+      </c>
+      <c r="E121" t="s">
+        <v>74</v>
       </c>
       <c r="F121" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="C122" t="s">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="D122" t="s">
-        <v>341</v>
+        <v>336</v>
+      </c>
+      <c r="E122" t="s">
+        <v>373</v>
       </c>
       <c r="F122" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C123" t="s">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="D123" t="s">
-        <v>344</v>
+        <v>33</v>
+      </c>
+      <c r="E123" t="s">
+        <v>34</v>
       </c>
       <c r="F123" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="C124" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="D124" t="s">
-        <v>247</v>
+        <v>378</v>
+      </c>
+      <c r="E124" t="s">
+        <v>19</v>
       </c>
       <c r="F124" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B125" t="s">
-        <v>347</v>
+        <v>379</v>
       </c>
       <c r="C125" t="s">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="D125" t="s">
-        <v>349</v>
+        <v>194</v>
+      </c>
+      <c r="E125" t="s">
+        <v>34</v>
       </c>
       <c r="F125" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B126" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="C126" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="D126" t="s">
-        <v>352</v>
+        <v>141</v>
+      </c>
+      <c r="E126" t="s">
+        <v>74</v>
       </c>
       <c r="F126" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
-        <v>353</v>
+        <v>383</v>
       </c>
       <c r="C127" t="s">
-        <v>354</v>
+        <v>384</v>
       </c>
       <c r="D127" t="s">
-        <v>130</v>
+        <v>385</v>
+      </c>
+      <c r="E127" t="s">
+        <v>386</v>
       </c>
       <c r="F127" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B128" t="s">
-        <v>355</v>
+        <v>387</v>
       </c>
       <c r="C128" t="s">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="D128" t="s">
-        <v>357</v>
+        <v>66</v>
+      </c>
+      <c r="E128" t="s">
+        <v>19</v>
       </c>
       <c r="F128" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B129" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="C129" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="D129" t="s">
-        <v>360</v>
+        <v>391</v>
+      </c>
+      <c r="E129" t="s">
+        <v>23</v>
       </c>
       <c r="F129" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B130" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="C130" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
       <c r="D130" t="s">
-        <v>195</v>
+        <v>295</v>
+      </c>
+      <c r="E130" t="s">
+        <v>74</v>
       </c>
       <c r="F130" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B131" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="C131" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
       <c r="D131" t="s">
-        <v>365</v>
+        <v>96</v>
+      </c>
+      <c r="E131" t="s">
+        <v>59</v>
       </c>
       <c r="F131" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B132" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="C132" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="D132" t="s">
-        <v>368</v>
+        <v>217</v>
+      </c>
+      <c r="E132" t="s">
+        <v>218</v>
       </c>
       <c r="F132" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B133" t="s">
-        <v>369</v>
+        <v>398</v>
       </c>
       <c r="C133" t="s">
-        <v>370</v>
+        <v>399</v>
       </c>
       <c r="D133" t="s">
-        <v>233</v>
+        <v>400</v>
+      </c>
+      <c r="E133" t="s">
+        <v>34</v>
       </c>
       <c r="F133" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B134" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
       <c r="C134" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="D134" t="s">
-        <v>373</v>
+        <v>403</v>
+      </c>
+      <c r="E134" t="s">
+        <v>63</v>
       </c>
       <c r="F134" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="C135" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="D135" t="s">
-        <v>376</v>
+        <v>406</v>
+      </c>
+      <c r="E135" t="s">
+        <v>70</v>
       </c>
       <c r="F135" t="s">
-        <v>4</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>7</v>
+      </c>
+      <c r="B136" t="s">
+        <v>407</v>
+      </c>
+      <c r="C136" t="s">
+        <v>408</v>
+      </c>
+      <c r="D136" t="s">
+        <v>409</v>
+      </c>
+      <c r="E136" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>7</v>
+      </c>
+      <c r="B137" t="s">
+        <v>410</v>
+      </c>
+      <c r="C137" t="s">
+        <v>411</v>
+      </c>
+      <c r="D137" t="s">
+        <v>176</v>
+      </c>
+      <c r="E137" t="s">
+        <v>11</v>
+      </c>
+      <c r="F137" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>7</v>
+      </c>
+      <c r="B138" t="s">
+        <v>412</v>
+      </c>
+      <c r="C138" t="s">
+        <v>413</v>
+      </c>
+      <c r="D138" t="s">
+        <v>414</v>
+      </c>
+      <c r="E138" t="s">
+        <v>23</v>
+      </c>
+      <c r="F138" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>7</v>
+      </c>
+      <c r="B139" t="s">
+        <v>415</v>
+      </c>
+      <c r="C139" t="s">
+        <v>416</v>
+      </c>
+      <c r="D139" t="s">
+        <v>194</v>
+      </c>
+      <c r="E139" t="s">
+        <v>34</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>7</v>
+      </c>
+      <c r="B140" t="s">
+        <v>417</v>
+      </c>
+      <c r="C140" t="s">
+        <v>418</v>
+      </c>
+      <c r="D140" t="s">
+        <v>284</v>
+      </c>
+      <c r="E140" t="s">
+        <v>107</v>
+      </c>
+      <c r="F140" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>35</v>
+      </c>
+      <c r="B141" t="s">
+        <v>419</v>
+      </c>
+      <c r="C141" t="s">
+        <v>420</v>
+      </c>
+      <c r="D141" t="s">
+        <v>66</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>7</v>
+      </c>
+      <c r="B142" t="s">
+        <v>421</v>
+      </c>
+      <c r="C142" t="s">
+        <v>422</v>
+      </c>
+      <c r="D142" t="s">
+        <v>77</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>7</v>
+      </c>
+      <c r="B143" t="s">
+        <v>423</v>
+      </c>
+      <c r="C143" t="s">
+        <v>424</v>
+      </c>
+      <c r="D143" t="s">
+        <v>425</v>
+      </c>
+      <c r="E143" t="s">
+        <v>74</v>
+      </c>
+      <c r="F143" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>7</v>
+      </c>
+      <c r="B144" t="s">
+        <v>426</v>
+      </c>
+      <c r="C144" t="s">
+        <v>427</v>
+      </c>
+      <c r="D144" t="s">
+        <v>295</v>
+      </c>
+      <c r="E144" t="s">
+        <v>74</v>
+      </c>
+      <c r="F144" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>7</v>
+      </c>
+      <c r="B145" t="s">
+        <v>428</v>
+      </c>
+      <c r="C145" t="s">
+        <v>429</v>
+      </c>
+      <c r="D145" t="s">
+        <v>430</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>7</v>
+      </c>
+      <c r="B146" t="s">
+        <v>431</v>
+      </c>
+      <c r="C146" t="s">
+        <v>432</v>
+      </c>
+      <c r="D146" t="s">
+        <v>433</v>
+      </c>
+      <c r="E146" t="s">
+        <v>46</v>
+      </c>
+      <c r="F146" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>434</v>
+      </c>
+      <c r="C147" t="s">
+        <v>435</v>
+      </c>
+      <c r="D147" t="s">
+        <v>436</v>
+      </c>
+      <c r="E147" t="s">
+        <v>59</v>
+      </c>
+      <c r="F147" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>30</v>
+      </c>
+      <c r="B148" t="s">
+        <v>437</v>
+      </c>
+      <c r="C148" t="s">
+        <v>438</v>
+      </c>
+      <c r="D148" t="s">
+        <v>439</v>
+      </c>
+      <c r="E148" t="s">
+        <v>46</v>
+      </c>
+      <c r="F148" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>440</v>
+      </c>
+      <c r="C149" t="s">
+        <v>441</v>
+      </c>
+      <c r="D149" t="s">
+        <v>327</v>
+      </c>
+      <c r="E149" t="s">
+        <v>107</v>
+      </c>
+      <c r="F149" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>7</v>
+      </c>
+      <c r="B150" t="s">
+        <v>442</v>
+      </c>
+      <c r="C150" t="s">
+        <v>443</v>
+      </c>
+      <c r="D150" t="s">
+        <v>444</v>
+      </c>
+      <c r="E150" t="s">
+        <v>59</v>
+      </c>
+      <c r="F150" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>445</v>
+      </c>
+      <c r="C151" t="s">
+        <v>446</v>
+      </c>
+      <c r="D151" t="s">
+        <v>33</v>
+      </c>
+      <c r="E151" t="s">
+        <v>34</v>
+      </c>
+      <c r="F151" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>7</v>
+      </c>
+      <c r="B152" t="s">
+        <v>447</v>
+      </c>
+      <c r="C152" t="s">
+        <v>448</v>
+      </c>
+      <c r="D152" t="s">
+        <v>188</v>
+      </c>
+      <c r="E152" t="s">
+        <v>46</v>
+      </c>
+      <c r="F152" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>449</v>
+      </c>
+      <c r="C153" t="s">
+        <v>450</v>
+      </c>
+      <c r="D153" t="s">
+        <v>77</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>7</v>
+      </c>
+      <c r="B154" t="s">
+        <v>451</v>
+      </c>
+      <c r="C154" t="s">
+        <v>452</v>
+      </c>
+      <c r="D154" t="s">
+        <v>453</v>
+      </c>
+      <c r="E154" t="s">
+        <v>23</v>
+      </c>
+      <c r="F154" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>7</v>
+      </c>
+      <c r="B155" t="s">
+        <v>454</v>
+      </c>
+      <c r="C155" t="s">
+        <v>455</v>
+      </c>
+      <c r="D155" t="s">
+        <v>96</v>
+      </c>
+      <c r="E155" t="s">
+        <v>59</v>
+      </c>
+      <c r="F155" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>7</v>
+      </c>
+      <c r="B156" t="s">
+        <v>456</v>
+      </c>
+      <c r="C156" t="s">
+        <v>457</v>
+      </c>
+      <c r="D156" t="s">
+        <v>458</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>459</v>
+      </c>
+      <c r="C157" t="s">
+        <v>460</v>
+      </c>
+      <c r="D157" t="s">
+        <v>461</v>
+      </c>
+      <c r="E157" t="s">
+        <v>59</v>
+      </c>
+      <c r="F157" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>7</v>
+      </c>
+      <c r="B158" t="s">
+        <v>462</v>
+      </c>
+      <c r="C158" t="s">
+        <v>463</v>
+      </c>
+      <c r="D158" t="s">
+        <v>464</v>
+      </c>
+      <c r="E158" t="s">
+        <v>373</v>
+      </c>
+      <c r="F158" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>35</v>
+      </c>
+      <c r="B159" t="s">
+        <v>465</v>
+      </c>
+      <c r="C159" t="s">
+        <v>466</v>
+      </c>
+      <c r="D159" t="s">
+        <v>467</v>
+      </c>
+      <c r="E159" t="s">
+        <v>107</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>7</v>
+      </c>
+      <c r="B160" t="s">
+        <v>468</v>
+      </c>
+      <c r="C160" t="s">
+        <v>469</v>
+      </c>
+      <c r="D160" t="s">
+        <v>470</v>
+      </c>
+      <c r="E160" t="s">
+        <v>373</v>
+      </c>
+      <c r="F160" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" t="s">
+        <v>471</v>
+      </c>
+      <c r="C161" t="s">
+        <v>472</v>
+      </c>
+      <c r="D161" t="s">
+        <v>188</v>
+      </c>
+      <c r="E161" t="s">
+        <v>46</v>
+      </c>
+      <c r="F161" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>7</v>
+      </c>
+      <c r="B162" t="s">
+        <v>473</v>
+      </c>
+      <c r="C162" t="s">
+        <v>474</v>
+      </c>
+      <c r="D162" t="s">
+        <v>475</v>
+      </c>
+      <c r="E162" t="s">
+        <v>107</v>
+      </c>
+      <c r="F162" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>7</v>
+      </c>
+      <c r="B163" t="s">
+        <v>476</v>
+      </c>
+      <c r="C163" t="s">
+        <v>477</v>
+      </c>
+      <c r="D163" t="s">
+        <v>478</v>
+      </c>
+      <c r="E163" t="s">
+        <v>63</v>
+      </c>
+      <c r="F163" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>7</v>
+      </c>
+      <c r="B164" t="s">
+        <v>479</v>
+      </c>
+      <c r="C164" t="s">
+        <v>480</v>
+      </c>
+      <c r="D164" t="s">
+        <v>481</v>
+      </c>
+      <c r="E164" t="s">
+        <v>107</v>
+      </c>
+      <c r="F164" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>7</v>
+      </c>
+      <c r="B165" t="s">
+        <v>482</v>
+      </c>
+      <c r="C165" t="s">
+        <v>483</v>
+      </c>
+      <c r="D165" t="s">
+        <v>484</v>
+      </c>
+      <c r="E165" t="s">
+        <v>373</v>
+      </c>
+      <c r="F165" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>7</v>
+      </c>
+      <c r="B166" t="s">
+        <v>485</v>
+      </c>
+      <c r="C166" t="s">
+        <v>486</v>
+      </c>
+      <c r="D166" t="s">
+        <v>22</v>
+      </c>
+      <c r="E166" t="s">
+        <v>59</v>
+      </c>
+      <c r="F166" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>7</v>
+      </c>
+      <c r="B167" t="s">
+        <v>487</v>
+      </c>
+      <c r="C167" t="s">
+        <v>488</v>
+      </c>
+      <c r="D167" t="s">
+        <v>489</v>
+      </c>
+      <c r="E167" t="s">
+        <v>386</v>
+      </c>
+      <c r="F167" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>7</v>
+      </c>
+      <c r="B168" t="s">
+        <v>490</v>
+      </c>
+      <c r="C168" t="s">
+        <v>491</v>
+      </c>
+      <c r="D168" t="s">
+        <v>492</v>
+      </c>
+      <c r="E168" t="s">
+        <v>70</v>
+      </c>
+      <c r="F168" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>7</v>
+      </c>
+      <c r="B169" t="s">
+        <v>493</v>
+      </c>
+      <c r="C169" t="s">
+        <v>494</v>
+      </c>
+      <c r="D169" t="s">
+        <v>188</v>
+      </c>
+      <c r="E169" t="s">
+        <v>46</v>
+      </c>
+      <c r="F169" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>495</v>
+      </c>
+      <c r="C170" t="s">
+        <v>496</v>
+      </c>
+      <c r="D170" t="s">
+        <v>378</v>
+      </c>
+      <c r="E170" t="s">
+        <v>19</v>
+      </c>
+      <c r="F170" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>7</v>
+      </c>
+      <c r="B171" t="s">
+        <v>497</v>
+      </c>
+      <c r="C171" t="s">
+        <v>498</v>
+      </c>
+      <c r="D171" t="s">
+        <v>499</v>
+      </c>
+      <c r="E171" t="s">
+        <v>59</v>
+      </c>
+      <c r="F171" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>7</v>
+      </c>
+      <c r="B172" t="s">
+        <v>500</v>
+      </c>
+      <c r="C172" t="s">
+        <v>501</v>
+      </c>
+      <c r="D172" t="s">
+        <v>502</v>
+      </c>
+      <c r="E172" t="s">
+        <v>126</v>
+      </c>
+      <c r="F172" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>503</v>
+      </c>
+      <c r="C173" t="s">
+        <v>504</v>
+      </c>
+      <c r="D173" t="s">
+        <v>289</v>
+      </c>
+      <c r="E173" t="s">
+        <v>59</v>
+      </c>
+      <c r="F173" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>7</v>
+      </c>
+      <c r="B174" t="s">
+        <v>505</v>
+      </c>
+      <c r="C174" t="s">
+        <v>506</v>
+      </c>
+      <c r="D174" t="s">
+        <v>77</v>
+      </c>
+      <c r="E174" t="s">
+        <v>19</v>
+      </c>
+      <c r="F174" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>507</v>
+      </c>
+      <c r="C175" t="s">
+        <v>508</v>
+      </c>
+      <c r="D175" t="s">
+        <v>509</v>
+      </c>
+      <c r="E175" t="s">
+        <v>19</v>
+      </c>
+      <c r="F175" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176" t="s">
+        <v>510</v>
+      </c>
+      <c r="C176" t="s">
+        <v>511</v>
+      </c>
+      <c r="D176" t="s">
+        <v>433</v>
+      </c>
+      <c r="E176" t="s">
+        <v>46</v>
+      </c>
+      <c r="F176" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>7</v>
+      </c>
+      <c r="B177" t="s">
+        <v>512</v>
+      </c>
+      <c r="C177" t="s">
+        <v>513</v>
+      </c>
+      <c r="D177" t="s">
+        <v>233</v>
+      </c>
+      <c r="E177" t="s">
+        <v>63</v>
+      </c>
+      <c r="F177" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>7</v>
+      </c>
+      <c r="B178" t="s">
+        <v>514</v>
+      </c>
+      <c r="C178" t="s">
+        <v>515</v>
+      </c>
+      <c r="D178" t="s">
+        <v>516</v>
+      </c>
+      <c r="E178" t="s">
+        <v>386</v>
+      </c>
+      <c r="F178" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>35</v>
+      </c>
+      <c r="B179" t="s">
+        <v>517</v>
+      </c>
+      <c r="C179" t="s">
+        <v>518</v>
+      </c>
+      <c r="D179" t="s">
+        <v>29</v>
+      </c>
+      <c r="E179" t="s">
+        <v>11</v>
+      </c>
+      <c r="F179" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>7</v>
+      </c>
+      <c r="B180" t="s">
+        <v>519</v>
+      </c>
+      <c r="C180" t="s">
+        <v>520</v>
+      </c>
+      <c r="D180" t="s">
+        <v>521</v>
+      </c>
+      <c r="E180" t="s">
+        <v>70</v>
+      </c>
+      <c r="F180" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>7</v>
+      </c>
+      <c r="B181" t="s">
+        <v>522</v>
+      </c>
+      <c r="C181" t="s">
+        <v>523</v>
+      </c>
+      <c r="D181" t="s">
+        <v>484</v>
+      </c>
+      <c r="E181" t="s">
+        <v>373</v>
+      </c>
+      <c r="F181" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>7</v>
+      </c>
+      <c r="B182" t="s">
+        <v>524</v>
+      </c>
+      <c r="C182" t="s">
+        <v>525</v>
+      </c>
+      <c r="D182" t="s">
+        <v>444</v>
+      </c>
+      <c r="E182" t="s">
+        <v>59</v>
+      </c>
+      <c r="F182" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>7</v>
+      </c>
+      <c r="B183" t="s">
+        <v>526</v>
+      </c>
+      <c r="C183" t="s">
+        <v>527</v>
+      </c>
+      <c r="D183" t="s">
+        <v>528</v>
+      </c>
+      <c r="E183" t="s">
+        <v>373</v>
+      </c>
+      <c r="F183" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>529</v>
+      </c>
+      <c r="C184" t="s">
+        <v>530</v>
+      </c>
+      <c r="D184" t="s">
+        <v>492</v>
+      </c>
+      <c r="E184" t="s">
+        <v>70</v>
+      </c>
+      <c r="F184" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>7</v>
+      </c>
+      <c r="B185" t="s">
+        <v>531</v>
+      </c>
+      <c r="C185" t="s">
+        <v>532</v>
+      </c>
+      <c r="D185" t="s">
+        <v>533</v>
+      </c>
+      <c r="E185" t="s">
+        <v>59</v>
+      </c>
+      <c r="F185" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>7</v>
+      </c>
+      <c r="B186" t="s">
+        <v>534</v>
+      </c>
+      <c r="C186" t="s">
+        <v>535</v>
+      </c>
+      <c r="D186" t="s">
+        <v>359</v>
+      </c>
+      <c r="E186" t="s">
+        <v>373</v>
+      </c>
+      <c r="F186" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>7</v>
+      </c>
+      <c r="B187" t="s">
+        <v>536</v>
+      </c>
+      <c r="C187" t="s">
+        <v>537</v>
+      </c>
+      <c r="D187" t="s">
+        <v>77</v>
+      </c>
+      <c r="E187" t="s">
+        <v>19</v>
+      </c>
+      <c r="F187" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>7</v>
+      </c>
+      <c r="B188" t="s">
+        <v>538</v>
+      </c>
+      <c r="C188" t="s">
+        <v>539</v>
+      </c>
+      <c r="D188" t="s">
+        <v>540</v>
+      </c>
+      <c r="E188" t="s">
+        <v>126</v>
+      </c>
+      <c r="F188" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>7</v>
+      </c>
+      <c r="B189" t="s">
+        <v>541</v>
+      </c>
+      <c r="C189" t="s">
+        <v>542</v>
+      </c>
+      <c r="D189" t="s">
+        <v>484</v>
+      </c>
+      <c r="E189" t="s">
+        <v>373</v>
+      </c>
+      <c r="F189" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>7</v>
+      </c>
+      <c r="B190" t="s">
+        <v>543</v>
+      </c>
+      <c r="C190" t="s">
+        <v>544</v>
+      </c>
+      <c r="D190" t="s">
+        <v>236</v>
+      </c>
+      <c r="E190" t="s">
+        <v>107</v>
+      </c>
+      <c r="F190" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>7</v>
+      </c>
+      <c r="B191" t="s">
+        <v>545</v>
+      </c>
+      <c r="C191" t="s">
+        <v>546</v>
+      </c>
+      <c r="D191" t="s">
+        <v>547</v>
+      </c>
+      <c r="E191" t="s">
+        <v>70</v>
+      </c>
+      <c r="F191" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DE6F582-1BB3-449C-A73B-018D43D89057}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>